--- a/01-Python 万能代码模版：10 大必学实用技巧/1.2 抓取表格，做数据分析/tips2.xlsx
+++ b/01-Python 万能代码模版：10 大必学实用技巧/1.2 抓取表格，做数据分析/tips2.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12:01:02</t>
+          <t>17:04:08</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12:01:02</t>
+          <t>17:04:08</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12:01:02</t>
+          <t>17:04:08</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12:01:02</t>
+          <t>17:04:08</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12:01:02</t>
+          <t>17:04:08</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12:01:02</t>
+          <t>17:04:08</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12:01:02</t>
+          <t>17:04:08</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12:01:02</t>
+          <t>17:04:08</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12:01:02</t>
+          <t>17:04:08</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12:01:02</t>
+          <t>17:04:08</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
